--- a/doc/内部設計/クラス設計書_Reca_ver1.0.xlsx
+++ b/doc/内部設計/クラス設計書_Reca_ver1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DB定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7131A6-1A27-478A-A176-21FB526B94AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92C2A63-2180-42A3-9031-2C4EC23F6462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">クラス設計書!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -334,6 +347,49 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>ハンベツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>dietname</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>提案結果画面に食品名を表示</t>
+    <rPh sb="0" eb="2">
+      <t>テイアン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショクヒン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>食品名を格納する変数</t>
+    <rPh sb="0" eb="3">
+      <t>ショクヒンメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンスウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -716,7 +772,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -791,6 +847,60 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -848,6 +958,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -858,84 +971,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1277,10 +1312,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN73"/>
+  <dimension ref="A1:AN74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="U29" sqref="U29:AL30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1289,156 +1324,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="39" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39" t="s">
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39" t="s">
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="52" t="s">
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="47"/>
+      <c r="AG1" s="71"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="64"/>
+      <c r="AL1" s="64"/>
+      <c r="AM1" s="64"/>
+      <c r="AN1" s="65"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="48" t="s">
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48" t="s">
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48" t="s">
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="78">
+      <c r="X2" s="66"/>
+      <c r="Y2" s="67">
         <v>45089</v>
       </c>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="49" t="s">
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="51"/>
+      <c r="AG2" s="68"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="69"/>
+      <c r="AJ2" s="69"/>
+      <c r="AK2" s="69"/>
+      <c r="AL2" s="69"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="70"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43" t="s">
+      <c r="L3" s="59"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="45"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="62"/>
+      <c r="AG3" s="62"/>
+      <c r="AH3" s="62"/>
+      <c r="AI3" s="62"/>
+      <c r="AJ3" s="62"/>
+      <c r="AK3" s="62"/>
+      <c r="AL3" s="62"/>
+      <c r="AM3" s="62"/>
+      <c r="AN3" s="63"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -1639,7 +1674,7 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="17"/>
-      <c r="J9" s="72" t="s">
+      <c r="J9" s="14" t="s">
         <v>19</v>
       </c>
       <c r="K9" s="16"/>
@@ -2321,276 +2356,288 @@
     <row r="25" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="60">
+      <c r="C25" s="30">
         <v>1</v>
       </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="60" t="s">
+      <c r="D25" s="32"/>
+      <c r="E25" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="60" t="s">
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="60" t="s">
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="P25" s="64"/>
-      <c r="Q25" s="64"/>
-      <c r="R25" s="61"/>
-      <c r="S25" s="53" t="s">
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="T25" s="55"/>
-      <c r="U25" s="59" t="s">
+      <c r="T25" s="43"/>
+      <c r="U25" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="V25" s="54"/>
-      <c r="W25" s="54"/>
-      <c r="X25" s="54"/>
-      <c r="Y25" s="54"/>
-      <c r="Z25" s="54"/>
-      <c r="AA25" s="54"/>
-      <c r="AB25" s="54"/>
-      <c r="AC25" s="54"/>
-      <c r="AD25" s="54"/>
-      <c r="AE25" s="54"/>
-      <c r="AF25" s="54"/>
-      <c r="AG25" s="54"/>
-      <c r="AH25" s="54"/>
-      <c r="AI25" s="54"/>
-      <c r="AJ25" s="54"/>
-      <c r="AK25" s="54"/>
-      <c r="AL25" s="55"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="46"/>
+      <c r="Z25" s="46"/>
+      <c r="AA25" s="46"/>
+      <c r="AB25" s="46"/>
+      <c r="AC25" s="46"/>
+      <c r="AD25" s="46"/>
+      <c r="AE25" s="46"/>
+      <c r="AF25" s="46"/>
+      <c r="AG25" s="46"/>
+      <c r="AH25" s="46"/>
+      <c r="AI25" s="46"/>
+      <c r="AJ25" s="46"/>
+      <c r="AK25" s="46"/>
+      <c r="AL25" s="43"/>
       <c r="AM25" s="7"/>
       <c r="AN25" s="7"/>
     </row>
     <row r="26" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="63"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="65"/>
-      <c r="Q26" s="65"/>
-      <c r="R26" s="63"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="58"/>
-      <c r="U26" s="56"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="57"/>
-      <c r="X26" s="57"/>
-      <c r="Y26" s="57"/>
-      <c r="Z26" s="57"/>
-      <c r="AA26" s="57"/>
-      <c r="AB26" s="57"/>
-      <c r="AC26" s="57"/>
-      <c r="AD26" s="57"/>
-      <c r="AE26" s="57"/>
-      <c r="AF26" s="57"/>
-      <c r="AG26" s="57"/>
-      <c r="AH26" s="57"/>
-      <c r="AI26" s="57"/>
-      <c r="AJ26" s="57"/>
-      <c r="AK26" s="57"/>
-      <c r="AL26" s="58"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="47"/>
+      <c r="X26" s="47"/>
+      <c r="Y26" s="47"/>
+      <c r="Z26" s="47"/>
+      <c r="AA26" s="47"/>
+      <c r="AB26" s="47"/>
+      <c r="AC26" s="47"/>
+      <c r="AD26" s="47"/>
+      <c r="AE26" s="47"/>
+      <c r="AF26" s="47"/>
+      <c r="AG26" s="47"/>
+      <c r="AH26" s="47"/>
+      <c r="AI26" s="47"/>
+      <c r="AJ26" s="47"/>
+      <c r="AK26" s="47"/>
+      <c r="AL26" s="45"/>
       <c r="AM26" s="7"/>
       <c r="AN26" s="7"/>
     </row>
     <row r="27" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="60">
+      <c r="C27" s="30">
         <v>2</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="60" t="s">
+      <c r="D27" s="32"/>
+      <c r="E27" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="60" t="s">
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="60" t="s">
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="P27" s="64"/>
-      <c r="Q27" s="64"/>
-      <c r="R27" s="61"/>
-      <c r="S27" s="53" t="s">
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="T27" s="55"/>
-      <c r="U27" s="59" t="s">
+      <c r="T27" s="43"/>
+      <c r="U27" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="V27" s="66"/>
-      <c r="W27" s="66"/>
-      <c r="X27" s="66"/>
-      <c r="Y27" s="66"/>
-      <c r="Z27" s="66"/>
-      <c r="AA27" s="66"/>
-      <c r="AB27" s="66"/>
-      <c r="AC27" s="66"/>
-      <c r="AD27" s="66"/>
-      <c r="AE27" s="66"/>
-      <c r="AF27" s="66"/>
-      <c r="AG27" s="66"/>
-      <c r="AH27" s="66"/>
-      <c r="AI27" s="66"/>
-      <c r="AJ27" s="66"/>
-      <c r="AK27" s="66"/>
-      <c r="AL27" s="67"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="37"/>
+      <c r="AA27" s="37"/>
+      <c r="AB27" s="37"/>
+      <c r="AC27" s="37"/>
+      <c r="AD27" s="37"/>
+      <c r="AE27" s="37"/>
+      <c r="AF27" s="37"/>
+      <c r="AG27" s="37"/>
+      <c r="AH27" s="37"/>
+      <c r="AI27" s="37"/>
+      <c r="AJ27" s="37"/>
+      <c r="AK27" s="37"/>
+      <c r="AL27" s="38"/>
       <c r="AM27" s="7"/>
       <c r="AN27" s="7"/>
     </row>
     <row r="28" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="62"/>
-      <c r="P28" s="65"/>
-      <c r="Q28" s="65"/>
-      <c r="R28" s="63"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="68"/>
-      <c r="V28" s="69"/>
-      <c r="W28" s="69"/>
-      <c r="X28" s="69"/>
-      <c r="Y28" s="69"/>
-      <c r="Z28" s="69"/>
-      <c r="AA28" s="69"/>
-      <c r="AB28" s="69"/>
-      <c r="AC28" s="69"/>
-      <c r="AD28" s="69"/>
-      <c r="AE28" s="69"/>
-      <c r="AF28" s="69"/>
-      <c r="AG28" s="69"/>
-      <c r="AH28" s="69"/>
-      <c r="AI28" s="69"/>
-      <c r="AJ28" s="69"/>
-      <c r="AK28" s="69"/>
-      <c r="AL28" s="70"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="40"/>
+      <c r="X28" s="40"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="40"/>
+      <c r="AA28" s="40"/>
+      <c r="AB28" s="40"/>
+      <c r="AC28" s="40"/>
+      <c r="AD28" s="40"/>
+      <c r="AE28" s="40"/>
+      <c r="AF28" s="40"/>
+      <c r="AG28" s="40"/>
+      <c r="AH28" s="40"/>
+      <c r="AI28" s="40"/>
+      <c r="AJ28" s="40"/>
+      <c r="AK28" s="40"/>
+      <c r="AL28" s="41"/>
       <c r="AM28" s="7"/>
       <c r="AN28" s="7"/>
     </row>
     <row r="29" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="15"/>
-      <c r="W29" s="15"/>
-      <c r="X29" s="15"/>
-      <c r="Y29" s="15"/>
-      <c r="Z29" s="15"/>
-      <c r="AA29" s="15"/>
-      <c r="AB29" s="15"/>
-      <c r="AC29" s="15"/>
-      <c r="AD29" s="15"/>
-      <c r="AE29" s="15"/>
-      <c r="AF29" s="15"/>
-      <c r="AG29" s="15"/>
-      <c r="AH29" s="15"/>
-      <c r="AI29" s="15"/>
-      <c r="AJ29" s="15"/>
-      <c r="AK29" s="15"/>
-      <c r="AL29" s="17"/>
+      <c r="C29" s="30">
+        <v>3</v>
+      </c>
+      <c r="D29" s="32"/>
+      <c r="E29" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="T29" s="43"/>
+      <c r="U29" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="37"/>
+      <c r="AA29" s="37"/>
+      <c r="AB29" s="37"/>
+      <c r="AC29" s="37"/>
+      <c r="AD29" s="37"/>
+      <c r="AE29" s="37"/>
+      <c r="AF29" s="37"/>
+      <c r="AG29" s="37"/>
+      <c r="AH29" s="37"/>
+      <c r="AI29" s="37"/>
+      <c r="AJ29" s="37"/>
+      <c r="AK29" s="37"/>
+      <c r="AL29" s="38"/>
       <c r="AM29" s="7"/>
       <c r="AN29" s="7"/>
     </row>
     <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="15"/>
-      <c r="W30" s="15"/>
-      <c r="X30" s="15"/>
-      <c r="Y30" s="15"/>
-      <c r="Z30" s="15"/>
-      <c r="AA30" s="15"/>
-      <c r="AB30" s="15"/>
-      <c r="AC30" s="15"/>
-      <c r="AD30" s="15"/>
-      <c r="AE30" s="15"/>
-      <c r="AF30" s="15"/>
-      <c r="AG30" s="15"/>
-      <c r="AH30" s="15"/>
-      <c r="AI30" s="15"/>
-      <c r="AJ30" s="15"/>
-      <c r="AK30" s="15"/>
-      <c r="AL30" s="17"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="40"/>
+      <c r="W30" s="40"/>
+      <c r="X30" s="40"/>
+      <c r="Y30" s="40"/>
+      <c r="Z30" s="40"/>
+      <c r="AA30" s="40"/>
+      <c r="AB30" s="40"/>
+      <c r="AC30" s="40"/>
+      <c r="AD30" s="40"/>
+      <c r="AE30" s="40"/>
+      <c r="AF30" s="40"/>
+      <c r="AG30" s="40"/>
+      <c r="AH30" s="40"/>
+      <c r="AI30" s="40"/>
+      <c r="AJ30" s="40"/>
+      <c r="AK30" s="40"/>
+      <c r="AL30" s="41"/>
       <c r="AM30" s="7"/>
       <c r="AN30" s="7"/>
     </row>
@@ -3185,7 +3232,7 @@
       </c>
       <c r="AC44" s="20"/>
       <c r="AD44" s="20"/>
-      <c r="AE44" s="74"/>
+      <c r="AE44" s="20"/>
       <c r="AF44" s="21" t="s">
         <v>13</v>
       </c>
@@ -3202,47 +3249,47 @@
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="8"/>
-      <c r="D45" s="75" t="s">
+      <c r="D45" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E45" s="76"/>
-      <c r="F45" s="76"/>
-      <c r="G45" s="76"/>
-      <c r="H45" s="75" t="s">
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="I45" s="76"/>
-      <c r="J45" s="76"/>
-      <c r="K45" s="76"/>
-      <c r="L45" s="76"/>
-      <c r="M45" s="76"/>
-      <c r="N45" s="77"/>
-      <c r="O45" s="75" t="s">
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="P45" s="76"/>
-      <c r="Q45" s="76"/>
-      <c r="R45" s="76"/>
-      <c r="S45" s="76"/>
-      <c r="T45" s="76"/>
-      <c r="U45" s="76"/>
-      <c r="V45" s="76"/>
-      <c r="W45" s="76"/>
-      <c r="X45" s="76"/>
-      <c r="Y45" s="76"/>
-      <c r="Z45" s="76"/>
-      <c r="AA45" s="76"/>
-      <c r="AB45" s="76"/>
-      <c r="AC45" s="76"/>
-      <c r="AD45" s="76"/>
-      <c r="AE45" s="76"/>
-      <c r="AF45" s="76"/>
-      <c r="AG45" s="76"/>
-      <c r="AH45" s="76"/>
-      <c r="AI45" s="76"/>
-      <c r="AJ45" s="76"/>
-      <c r="AK45" s="76"/>
-      <c r="AL45" s="77"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="22"/>
+      <c r="R45" s="22"/>
+      <c r="S45" s="22"/>
+      <c r="T45" s="22"/>
+      <c r="U45" s="22"/>
+      <c r="V45" s="22"/>
+      <c r="W45" s="22"/>
+      <c r="X45" s="22"/>
+      <c r="Y45" s="22"/>
+      <c r="Z45" s="22"/>
+      <c r="AA45" s="22"/>
+      <c r="AB45" s="22"/>
+      <c r="AC45" s="22"/>
+      <c r="AD45" s="22"/>
+      <c r="AE45" s="22"/>
+      <c r="AF45" s="22"/>
+      <c r="AG45" s="22"/>
+      <c r="AH45" s="22"/>
+      <c r="AI45" s="22"/>
+      <c r="AJ45" s="22"/>
+      <c r="AK45" s="22"/>
+      <c r="AL45" s="23"/>
       <c r="AM45" s="7"/>
       <c r="AN45" s="7"/>
     </row>
@@ -3250,146 +3297,151 @@
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="8"/>
-      <c r="D46" s="71" t="s">
+      <c r="D46" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="74"/>
-      <c r="F46" s="74"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="71" t="s">
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I46" s="74"/>
-      <c r="J46" s="74"/>
-      <c r="K46" s="74"/>
-      <c r="L46" s="74"/>
-      <c r="M46" s="74"/>
-      <c r="N46" s="73"/>
-      <c r="O46" s="71" t="s">
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="P46" s="74"/>
-      <c r="Q46" s="74"/>
-      <c r="R46" s="74"/>
-      <c r="S46" s="74"/>
-      <c r="T46" s="74"/>
-      <c r="U46" s="74"/>
-      <c r="V46" s="74"/>
-      <c r="W46" s="74"/>
-      <c r="X46" s="74"/>
-      <c r="Y46" s="74"/>
-      <c r="Z46" s="74"/>
-      <c r="AA46" s="74"/>
-      <c r="AB46" s="74"/>
-      <c r="AC46" s="74"/>
-      <c r="AD46" s="74"/>
-      <c r="AE46" s="74"/>
-      <c r="AF46" s="74"/>
-      <c r="AG46" s="74"/>
-      <c r="AH46" s="74"/>
-      <c r="AI46" s="74"/>
-      <c r="AJ46" s="74"/>
-      <c r="AK46" s="74"/>
-      <c r="AL46" s="73"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="20"/>
+      <c r="U46" s="20"/>
+      <c r="V46" s="20"/>
+      <c r="W46" s="20"/>
+      <c r="X46" s="20"/>
+      <c r="Y46" s="20"/>
+      <c r="Z46" s="20"/>
+      <c r="AA46" s="20"/>
+      <c r="AB46" s="20"/>
+      <c r="AC46" s="20"/>
+      <c r="AD46" s="20"/>
+      <c r="AE46" s="20"/>
+      <c r="AF46" s="20"/>
+      <c r="AG46" s="20"/>
+      <c r="AH46" s="20"/>
+      <c r="AI46" s="20"/>
+      <c r="AJ46" s="20"/>
+      <c r="AK46" s="20"/>
+      <c r="AL46" s="18"/>
       <c r="AM46" s="7"/>
       <c r="AN46" s="7"/>
     </row>
     <row r="47" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
-      <c r="D47" s="71" t="s">
+      <c r="D47" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="73"/>
-      <c r="H47" s="71" t="s">
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I47" s="74"/>
-      <c r="J47" s="74"/>
-      <c r="K47" s="74"/>
-      <c r="L47" s="74"/>
-      <c r="M47" s="74"/>
-      <c r="N47" s="73"/>
-      <c r="O47" s="71" t="s">
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="P47" s="74"/>
-      <c r="Q47" s="74"/>
-      <c r="R47" s="74"/>
-      <c r="S47" s="74"/>
-      <c r="T47" s="74"/>
-      <c r="U47" s="74"/>
-      <c r="V47" s="74"/>
-      <c r="W47" s="74"/>
-      <c r="X47" s="74"/>
-      <c r="Y47" s="74"/>
-      <c r="Z47" s="74"/>
-      <c r="AA47" s="74"/>
-      <c r="AB47" s="74"/>
-      <c r="AC47" s="74"/>
-      <c r="AD47" s="74"/>
-      <c r="AE47" s="74"/>
-      <c r="AF47" s="74"/>
-      <c r="AG47" s="74"/>
-      <c r="AH47" s="74"/>
-      <c r="AI47" s="74"/>
-      <c r="AJ47" s="74"/>
-      <c r="AK47" s="74"/>
-      <c r="AL47" s="73"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="20"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="20"/>
+      <c r="W47" s="20"/>
+      <c r="X47" s="20"/>
+      <c r="Y47" s="20"/>
+      <c r="Z47" s="20"/>
+      <c r="AA47" s="20"/>
+      <c r="AB47" s="20"/>
+      <c r="AC47" s="20"/>
+      <c r="AD47" s="20"/>
+      <c r="AE47" s="20"/>
+      <c r="AF47" s="20"/>
+      <c r="AG47" s="20"/>
+      <c r="AH47" s="20"/>
+      <c r="AI47" s="20"/>
+      <c r="AJ47" s="20"/>
+      <c r="AK47" s="20"/>
+      <c r="AL47" s="18"/>
       <c r="AM47" s="7"/>
       <c r="AN47" s="7"/>
     </row>
     <row r="48" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="D48" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="8"/>
-      <c r="S48" s="8"/>
-      <c r="T48" s="8"/>
-      <c r="U48" s="8"/>
-      <c r="V48" s="8"/>
-      <c r="W48" s="8"/>
-      <c r="X48" s="8"/>
-      <c r="Y48" s="8"/>
-      <c r="Z48" s="8"/>
-      <c r="AA48" s="8"/>
-      <c r="AB48" s="8"/>
-      <c r="AC48" s="8"/>
-      <c r="AD48" s="8"/>
-      <c r="AE48" s="8"/>
-      <c r="AF48" s="8"/>
-      <c r="AG48" s="8"/>
-      <c r="AH48" s="8"/>
-      <c r="AI48" s="8"/>
-      <c r="AJ48" s="8"/>
-      <c r="AK48" s="8"/>
-      <c r="AL48" s="8"/>
+      <c r="D48" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="20"/>
+      <c r="V48" s="20"/>
+      <c r="W48" s="20"/>
+      <c r="X48" s="20"/>
+      <c r="Y48" s="20"/>
+      <c r="Z48" s="20"/>
+      <c r="AA48" s="20"/>
+      <c r="AB48" s="20"/>
+      <c r="AC48" s="20"/>
+      <c r="AD48" s="20"/>
+      <c r="AE48" s="20"/>
+      <c r="AF48" s="20"/>
+      <c r="AG48" s="20"/>
+      <c r="AH48" s="20"/>
+      <c r="AI48" s="20"/>
+      <c r="AJ48" s="20"/>
+      <c r="AK48" s="20"/>
+      <c r="AL48" s="18"/>
       <c r="AM48" s="7"/>
       <c r="AN48" s="7"/>
     </row>
     <row r="49" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="E49" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="D49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
@@ -3429,7 +3481,9 @@
     <row r="50" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="E50" s="8"/>
+      <c r="E50" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
@@ -3518,11 +3572,11 @@
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
       <c r="S52" s="8"/>
       <c r="T52" s="8"/>
       <c r="U52" s="8"/>
@@ -3638,11 +3692,11 @@
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="8"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
       <c r="S55" s="8"/>
       <c r="T55" s="8"/>
       <c r="U55" s="8"/>
@@ -4269,8 +4323,6 @@
     <row r="71" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
@@ -4310,49 +4362,49 @@
     </row>
     <row r="72" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="10"/>
-      <c r="O72" s="10"/>
-      <c r="P72" s="10"/>
-      <c r="Q72" s="10"/>
-      <c r="R72" s="10"/>
-      <c r="S72" s="10"/>
-      <c r="T72" s="10"/>
-      <c r="U72" s="10"/>
-      <c r="V72" s="10"/>
-      <c r="W72" s="10"/>
-      <c r="X72" s="10"/>
-      <c r="Y72" s="10"/>
-      <c r="Z72" s="10"/>
-      <c r="AA72" s="10"/>
-      <c r="AB72" s="10"/>
-      <c r="AC72" s="10"/>
-      <c r="AD72" s="10"/>
-      <c r="AE72" s="10"/>
-      <c r="AF72" s="10"/>
-      <c r="AG72" s="10"/>
-      <c r="AH72" s="10"/>
-      <c r="AI72" s="10"/>
-      <c r="AJ72" s="10"/>
-      <c r="AK72" s="10"/>
-      <c r="AL72" s="10"/>
-      <c r="AM72" s="11"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="8"/>
+      <c r="T72" s="8"/>
+      <c r="U72" s="8"/>
+      <c r="V72" s="8"/>
+      <c r="W72" s="8"/>
+      <c r="X72" s="8"/>
+      <c r="Y72" s="8"/>
+      <c r="Z72" s="8"/>
+      <c r="AA72" s="8"/>
+      <c r="AB72" s="8"/>
+      <c r="AC72" s="8"/>
+      <c r="AD72" s="8"/>
+      <c r="AE72" s="8"/>
+      <c r="AF72" s="8"/>
+      <c r="AG72" s="8"/>
+      <c r="AH72" s="8"/>
+      <c r="AI72" s="8"/>
+      <c r="AJ72" s="8"/>
+      <c r="AK72" s="8"/>
+      <c r="AL72" s="8"/>
+      <c r="AM72" s="7"/>
       <c r="AN72" s="7"/>
     </row>
     <row r="73" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="9"/>
-      <c r="B73" s="10"/>
+      <c r="A73" s="6"/>
+      <c r="B73" s="9"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
       <c r="E73" s="10"/>
@@ -4389,23 +4441,59 @@
       <c r="AJ73" s="10"/>
       <c r="AK73" s="10"/>
       <c r="AL73" s="10"/>
-      <c r="AM73" s="10"/>
-      <c r="AN73" s="11"/>
+      <c r="AM73" s="11"/>
+      <c r="AN73" s="7"/>
+    </row>
+    <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="9"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10"/>
+      <c r="S74" s="10"/>
+      <c r="T74" s="10"/>
+      <c r="U74" s="10"/>
+      <c r="V74" s="10"/>
+      <c r="W74" s="10"/>
+      <c r="X74" s="10"/>
+      <c r="Y74" s="10"/>
+      <c r="Z74" s="10"/>
+      <c r="AA74" s="10"/>
+      <c r="AB74" s="10"/>
+      <c r="AC74" s="10"/>
+      <c r="AD74" s="10"/>
+      <c r="AE74" s="10"/>
+      <c r="AF74" s="10"/>
+      <c r="AG74" s="10"/>
+      <c r="AH74" s="10"/>
+      <c r="AI74" s="10"/>
+      <c r="AJ74" s="10"/>
+      <c r="AK74" s="10"/>
+      <c r="AL74" s="10"/>
+      <c r="AM74" s="10"/>
+      <c r="AN74" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="E27:I28"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="U27:AL28"/>
-    <mergeCell ref="S27:T28"/>
-    <mergeCell ref="O27:R28"/>
-    <mergeCell ref="J27:N28"/>
-    <mergeCell ref="U25:AL26"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="E25:I26"/>
-    <mergeCell ref="O25:R26"/>
-    <mergeCell ref="J25:N26"/>
-    <mergeCell ref="S25:T26"/>
+  <mergeCells count="33">
+    <mergeCell ref="U29:AL30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="E29:I30"/>
+    <mergeCell ref="J29:N30"/>
+    <mergeCell ref="O29:R30"/>
+    <mergeCell ref="S29:T30"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:V1"/>
@@ -4421,6 +4509,18 @@
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="U25:AL26"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="E25:I26"/>
+    <mergeCell ref="O25:R26"/>
+    <mergeCell ref="J25:N26"/>
+    <mergeCell ref="S25:T26"/>
+    <mergeCell ref="E27:I28"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="U27:AL28"/>
+    <mergeCell ref="S27:T28"/>
+    <mergeCell ref="O27:R28"/>
+    <mergeCell ref="J27:N28"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
